--- a/ApolloQA/Data/RatingManual/SC/VA00065.SizeType_StatedValueFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00065.SizeType_StatedValueFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00065.SizeType_StatedValueFactors" sheetId="1" r:id="R62ba37b8beed47a2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00065.SizeType_StatedValueFactors" sheetId="1" r:id="R54374349cf834241"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -1141,6 +1141,26 @@
         <x:v>10,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$425,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$450,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$450,001</x:v>
       </x:c>
       <x:c t="str">
@@ -2241,6 +2261,26 @@
         <x:v>20,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$225,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$250,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0291</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$250,001</x:v>
       </x:c>
       <x:c t="str">
@@ -3341,6 +3381,26 @@
         <x:v>45,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$130,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$140,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1860</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$140,001</x:v>
       </x:c>
       <x:c t="str">
@@ -4441,6 +4501,26 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$75,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$80,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0900</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$80,001</x:v>
       </x:c>
       <x:c t="str">
@@ -5541,6 +5621,26 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$35,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$40,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0615</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>SemiTrailer</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$40,001</x:v>
       </x:c>
       <x:c t="str">
@@ -6641,6 +6741,26 @@
         <x:v>45,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$19,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$20,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9696</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Tractor</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$20,001</x:v>
       </x:c>
       <x:c t="str">
@@ -7741,6 +7861,26 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$11,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$12,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9401</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Tractor</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$12,001</x:v>
       </x:c>
       <x:c t="str">
@@ -8832,6 +8972,26 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>Tractor</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.9469</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>Trailer</x:v>
       </x:c>
       <x:c t="str">
@@ -9941,6 +10101,26 @@
         <x:v>2,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$425,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$450,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.8002</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Trailer</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$450,001</x:v>
       </x:c>
       <x:c t="str">
@@ -11025,6 +11205,26 @@
       </x:c>
       <x:c t="str">
         <x:v>$225,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.8002</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Trailer</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$225,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$250,000</x:v>
       </x:c>
       <x:c t="str">
         <x:v>2.8002</x:v>
